--- a/data/annotations/new_annotation_structure_out/iteration_4/iteration_4_mistral-large-2411-2.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_4/iteration_4_mistral-large-2411-2.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
         <v>1</v>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -5029,10 +5029,10 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -5362,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -5518,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -7057,10 +7057,10 @@
         </is>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         </is>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         </is>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
